--- a/comparatie-clasificatori/comparatie-evalure-all-cclassifieries.xlsx
+++ b/comparatie-clasificatori/comparatie-evalure-all-cclassifieries.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="4620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Aprilie" sheetId="1" r:id="rId1"/>
+    <sheet name="16-mai" sheetId="2" r:id="rId2"/>
+    <sheet name="16-mai-echilibrate" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Classifier</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>Suport vector machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pentru arff-urile de dinainte de pasti </t>
+  </si>
+  <si>
+    <t>Pentru ultimele arff- dupa echilibrarea datelor</t>
+  </si>
+  <si>
+    <t>Pentru ultimele arff-uri - 16 mai</t>
   </si>
 </sst>
 </file>
@@ -58,12 +67,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,8 +99,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -389,37 +412,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>95.64</v>
+      </c>
+      <c r="C4">
+        <v>95.7</v>
+      </c>
+      <c r="D4">
+        <v>95.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -430,24 +468,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/comparatie-clasificatori/comparatie-evalure-all-cclassifieries.xlsx
+++ b/comparatie-clasificatori/comparatie-evalure-all-cclassifieries.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DiplomaCode\artifacts-detection\comparatie-clasificatori\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="4620"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="4620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Aprilie" sheetId="1" r:id="rId1"/>
@@ -57,8 +62,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +114,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -155,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,9 +200,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,6 +252,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -396,14 +445,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
@@ -411,13 +460,13 @@
     <col min="6" max="6" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -437,12 +486,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -456,7 +505,7 @@
         <v>95.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -467,25 +516,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -505,19 +556,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="B5">
+        <v>98.207452165156099</v>
+      </c>
+      <c r="C5">
+        <v>94.1431670281995</v>
+      </c>
+      <c r="D5">
+        <v>87.5</v>
+      </c>
+      <c r="E5">
+        <v>99.395837995077201</v>
       </c>
     </row>
   </sheetData>
@@ -526,21 +589,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -549,7 +612,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -569,17 +632,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>

--- a/comparatie-clasificatori/comparatie-evalure-all-cclassifieries.xlsx
+++ b/comparatie-clasificatori/comparatie-evalure-all-cclassifieries.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DiplomaCode\artifacts-detection\comparatie-clasificatori\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="4620" activeTab="1"/>
   </bookViews>
@@ -62,8 +57,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,7 +163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,27 +195,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,24 +229,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,14 +404,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
@@ -460,13 +419,13 @@
     <col min="6" max="6" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -486,12 +445,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -505,7 +464,7 @@
         <v>95.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -516,27 +475,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -556,17 +515,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>96.435500000000005</v>
+      </c>
+      <c r="C4">
+        <v>96.5</v>
+      </c>
+      <c r="D4">
+        <v>96.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -589,21 +557,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -612,7 +580,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -632,17 +600,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>

--- a/comparatie-clasificatori/comparatie-evalure-all-cclassifieries.xlsx
+++ b/comparatie-clasificatori/comparatie-evalure-all-cclassifieries.xlsx
@@ -455,13 +455,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>95.64</v>
+        <v>96.69</v>
       </c>
       <c r="C4">
-        <v>95.7</v>
+        <v>96.6</v>
       </c>
       <c r="D4">
-        <v>95.6</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -479,7 +479,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -525,13 +525,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>96.435500000000005</v>
+        <v>97.46</v>
       </c>
       <c r="C4">
-        <v>96.5</v>
+        <v>97.3</v>
       </c>
       <c r="D4">
-        <v>96.4</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">

--- a/comparatie-clasificatori/comparatie-evalure-all-cclassifieries.xlsx
+++ b/comparatie-clasificatori/comparatie-evalure-all-cclassifieries.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -518,6 +518,15 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="B3">
+        <v>98.27</v>
+      </c>
+      <c r="C3">
+        <v>98.3</v>
+      </c>
+      <c r="D3">
+        <v>98.3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
